--- a/Data set players .xlsx
+++ b/Data set players .xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MEngg Materials\Sem 2\ENGN 8120 Systems Modelling\Major project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E36D02-2ED0-405F-B54B-8634AE22E4C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6B0F0-651B-413B-8554-0E796B3EE6DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Frank Lampard (FW)</t>
   </si>
@@ -182,6 +184,21 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Dieder</t>
+  </si>
+  <si>
+    <t>Drogba</t>
+  </si>
+  <si>
+    <t>Petr</t>
   </si>
 </sst>
 </file>
@@ -622,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2642,7 +2659,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:L13"/>
+      <selection activeCell="L2" sqref="L2:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3175,6 +3192,698 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD9F3D2-F0B2-49D1-B00F-8CF3D712957C}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>121</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>137</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1851</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1373</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>175</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2315</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>141</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1923</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1284</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1537</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1047</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1221</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>988</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1783</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1906</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1927</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1826</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>557</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1709</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>121</v>
+      </c>
+      <c r="D33" s="3">
+        <v>784</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3">
+        <v>61</v>
+      </c>
+      <c r="D34" s="3">
+        <v>439</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3">
+        <v>441</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>178</v>
+      </c>
+      <c r="D36" s="3">
+        <v>640</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>150</v>
+      </c>
+      <c r="D37" s="3">
+        <v>785</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3">
+        <v>388</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5EE22-1F22-4DFB-82E8-72A77BE558C7}">
   <dimension ref="A1:U350"/>
   <sheetViews>
@@ -17589,12 +18298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFD2FBD-379E-40C0-9942-419C0717ABB2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H10"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17914,7 +18623,396 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD58106-4F35-46F6-9133-588458520758}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3">
+        <v>64</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <v>98</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3">
+        <v>122</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16BC31C-5CCF-467B-82CB-E39C2C75D402}">
   <dimension ref="A1:U418"/>
   <sheetViews>
@@ -45099,11 +46197,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11374978-D003-4949-8929-0057009044A2}">
   <dimension ref="A1:A418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>

--- a/Data set players .xlsx
+++ b/Data set players .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MEngg Materials\Sem 2\ENGN 8120 Systems Modelling\Major project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6B0F0-651B-413B-8554-0E796B3EE6DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0DB2DA-D0B4-4BAE-8B34-33B1650D905A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6096" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="65">
   <si>
     <t>Frank Lampard (FW)</t>
   </si>
@@ -186,19 +186,49 @@
     <t>Date</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Dieder</t>
-  </si>
-  <si>
     <t>Drogba</t>
   </si>
   <si>
-    <t>Petr</t>
+    <t>Paulo Ferreira</t>
+  </si>
+  <si>
+    <t>Clean h</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Michael Baallack</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>Ashley cole</t>
+  </si>
+  <si>
+    <t>Michael Essien</t>
+  </si>
+  <si>
+    <t>Essien</t>
+  </si>
+  <si>
+    <t>Lampard</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Clean sheets</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>Cole</t>
   </si>
 </sst>
 </file>
@@ -248,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -317,12 +347,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -356,6 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="B2:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2641,6 +2685,498 @@
       </c>
       <c r="K62" s="3">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>63</v>
+      </c>
+      <c r="F67">
+        <v>783</v>
+      </c>
+      <c r="G67">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>627</v>
+      </c>
+      <c r="G68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>26</v>
+      </c>
+      <c r="F70">
+        <v>449</v>
+      </c>
+      <c r="G70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>143</v>
+      </c>
+      <c r="G71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>1067</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="16">
+        <v>43319</v>
+      </c>
+      <c r="C75">
+        <v>767</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>1367</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>1627</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>74</v>
+      </c>
+      <c r="F83">
+        <v>860</v>
+      </c>
+      <c r="G83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>22</v>
+      </c>
+      <c r="E84">
+        <v>92</v>
+      </c>
+      <c r="F84">
+        <v>1094</v>
+      </c>
+      <c r="G84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>15</v>
+      </c>
+      <c r="D85">
+        <v>24</v>
+      </c>
+      <c r="E85">
+        <v>94</v>
+      </c>
+      <c r="F85">
+        <v>1614</v>
+      </c>
+      <c r="G85">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>65</v>
+      </c>
+      <c r="F86">
+        <v>1037</v>
+      </c>
+      <c r="G86">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>1656</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>80</v>
+      </c>
+      <c r="F88">
+        <v>1405</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>64</v>
+      </c>
+      <c r="F89">
+        <v>1316</v>
+      </c>
+      <c r="G89">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>39</v>
+      </c>
+      <c r="F90">
+        <v>699</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>2005</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>1760</v>
+      </c>
+      <c r="F93">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>1322</v>
+      </c>
+      <c r="F94">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>590</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>933</v>
+      </c>
+      <c r="F96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2275</v>
+      </c>
+      <c r="F97">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>669</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>132</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3732,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3229,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3246,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3263,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3280,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3297,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3314,7 +3850,7 @@
         <v>1851</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3331,7 +3867,7 @@
         <v>1373</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3348,7 +3884,7 @@
         <v>2315</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3365,7 +3901,7 @@
         <v>1923</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3382,7 +3918,7 @@
         <v>1284</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3399,7 +3935,7 @@
         <v>1537</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3416,7 +3952,7 @@
         <v>1245</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3433,7 +3969,7 @@
         <v>1047</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3450,15 +3986,15 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -3467,194 +4003,194 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1760</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1322</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>590</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>933</v>
+      </c>
+      <c r="D22">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="C23">
+        <v>2275</v>
+      </c>
+      <c r="D23">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>669</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>132</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1221</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>988</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1783</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1906</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1927</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1826</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>557</v>
-      </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>1709</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3671,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3688,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3705,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3722,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3739,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3756,7 +4292,7 @@
         <v>784</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3773,7 +4309,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3790,7 +4326,7 @@
         <v>441</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3807,7 +4343,7 @@
         <v>640</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3824,7 +4360,7 @@
         <v>785</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3841,7 +4377,7 @@
         <v>388</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3858,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3875,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3887,8 +4423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5EE22-1F22-4DFB-82E8-72A77BE558C7}">
   <dimension ref="A1:U350"/>
   <sheetViews>
-    <sheetView topLeftCell="B287" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:U291"/>
+    <sheetView topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18625,386 +19161,541 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD58106-4F35-46F6-9133-588458520758}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" s="3">
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40</v>
       </c>
       <c r="D4" s="3">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>88</v>
       </c>
       <c r="D5" s="3">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>53</v>
       </c>
       <c r="D6" s="3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
       </c>
       <c r="D7" s="3">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36</v>
       </c>
       <c r="D9" s="3">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32</v>
       </c>
       <c r="D10" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>38</v>
       </c>
       <c r="D11" s="3">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="C26">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <v>61</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3">
-        <v>88</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
         <v>64</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3">
-        <v>98</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>64</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
         <v>39</v>
       </c>
-      <c r="C19" s="3">
-        <v>84</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3">
-        <v>122</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>24</v>
-      </c>
-      <c r="C21" s="3">
-        <v>81</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
+      <c r="E31" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
